--- a/ML_PL_new/actual_preds.xlsx
+++ b/ML_PL_new/actual_preds.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\.Data files\TSDP\ML_PL_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\..Data\TSDP\ML_PL_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEF011F-8880-4B68-9F14-B1C27929A518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -49,24 +48,12 @@
     <t>A_odds</t>
   </si>
   <si>
-    <t>Verona</t>
-  </si>
-  <si>
     <t>Parma</t>
   </si>
   <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
     <t>Celta</t>
   </si>
   <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
     <t>Arsenal</t>
   </si>
   <si>
@@ -296,14 +283,23 @@
   </si>
   <si>
     <t>Lille</t>
+  </si>
+  <si>
+    <t>H_bet</t>
+  </si>
+  <si>
+    <t>D_bet</t>
+  </si>
+  <si>
+    <t>A_bet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -317,6 +313,8 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -354,12 +352,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -661,19 +660,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,410 +702,758 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45747.770833333343</v>
+        <v>45748.822916666657</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>0.48009588889741578</v>
+      </c>
+      <c r="E2">
+        <v>0.22446186150839309</v>
+      </c>
+      <c r="F2">
+        <v>0.29544224959419252</v>
+      </c>
+      <c r="G2">
+        <v>1.48</v>
+      </c>
+      <c r="H2">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I2">
+        <v>8.25</v>
+      </c>
+      <c r="J2" s="3">
+        <f>IF(G2="","",IF(D2&gt;=1/G2, (D2-1/G2)*10000 / (G2-1) /7,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <f t="shared" ref="K2:L2" si="0">IF(H2="","",IF(E2&gt;=1/H2, (E2-1/H2)*10000 / (H2-1) /7,0))</f>
+        <v>3.6822301634179646</v>
+      </c>
+      <c r="L2" s="3">
+        <f t="shared" si="0"/>
+        <v>34.33105977971848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45748.833333333343</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>0.45043032597087879</v>
+      </c>
+      <c r="E3">
+        <v>0.20590736622698269</v>
+      </c>
+      <c r="F3">
+        <v>0.34366230780213919</v>
+      </c>
+      <c r="G3">
+        <v>1.27</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>0.1210844676337513</v>
-      </c>
-      <c r="E2">
-        <v>0.24603056997176501</v>
-      </c>
-      <c r="F2">
-        <v>0.632884962394484</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>45747.864583333343</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J44" si="1">IF(G3="","",IF(D3&gt;=1/G3, (D3-1/G3)*10000 / (G3-1) /7,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K44" si="2">IF(H3="","",IF(E3&gt;=1/H3, (E3-1/H3)*10000 / (H3-1) /7,0))</f>
+        <v>11.21162844580458</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L44" si="3">IF(I3="","",IF(F3&gt;=1/I3, (F3-1/I3)*10000 / (I3-1) /7,0))</f>
+        <v>38.676556793990351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45748.833333333343</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>0.56869786305998926</v>
+      </c>
+      <c r="E4">
+        <v>0.29200110025100862</v>
+      </c>
+      <c r="F4">
+        <v>0.13930103668900051</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L4" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45748.84375</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>0.27970833816080898</v>
+      </c>
+      <c r="E5">
+        <v>0.25751002932709899</v>
+      </c>
+      <c r="F5">
+        <v>0.46278163251209181</v>
+      </c>
+      <c r="G5">
+        <v>3.4</v>
+      </c>
+      <c r="H5">
+        <v>3.1</v>
+      </c>
+      <c r="I5">
+        <v>2.27</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="3"/>
+        <v>25.031493982967771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45749.822916666657</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>7.7568834403656927E-3</v>
+      </c>
+      <c r="E6">
+        <v>3.8966104102962022E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.95327701245667074</v>
+      </c>
+      <c r="G6">
+        <v>1.76</v>
+      </c>
+      <c r="H6">
+        <v>4.3</v>
+      </c>
+      <c r="I6">
+        <v>4.3</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="3"/>
+        <v>311.99951208735371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45749.822916666657</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>0.73404167156048927</v>
+      </c>
+      <c r="E7">
+        <v>0.1678528136578766</v>
+      </c>
+      <c r="F7">
+        <v>9.8105514781632527E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.23</v>
+      </c>
+      <c r="H7">
+        <v>7.25</v>
+      </c>
+      <c r="I7">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>0.88532247441544609</v>
-      </c>
-      <c r="E3">
-        <v>8.6707340548396197E-2</v>
-      </c>
-      <c r="F3">
-        <v>2.7970185036157381E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>45747.875</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>0.956456989732267</v>
-      </c>
-      <c r="E4">
-        <v>3.7281412824551607E-2</v>
-      </c>
-      <c r="F4">
-        <v>6.2615974431816353E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>45748.822916666657</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>0.48009588889741578</v>
-      </c>
-      <c r="E5">
-        <v>0.22446186150839309</v>
-      </c>
-      <c r="F5">
-        <v>0.29544224959419252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>45748.833333333343</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>0.45043032597087879</v>
-      </c>
-      <c r="E6">
-        <v>0.20590736622698269</v>
-      </c>
-      <c r="F6">
-        <v>0.34366230780213919</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>45748.833333333343</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>0.56869786305998926</v>
-      </c>
-      <c r="E7">
-        <v>0.29200110025100862</v>
-      </c>
-      <c r="F7">
-        <v>0.13930103668900051</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="2"/>
+        <v>6.8392638114555391</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9184651231557399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45748.84375</v>
+        <v>45749.822916666657</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>0.27970833816080898</v>
+        <v>7.8662655161190471E-4</v>
       </c>
       <c r="E8">
-        <v>0.25751002932709899</v>
+        <v>2.5652257096254811E-2</v>
       </c>
       <c r="F8">
-        <v>0.46278163251209181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.97356111635213205</v>
+      </c>
+      <c r="G8">
+        <v>5.5</v>
+      </c>
+      <c r="H8">
+        <v>4.05</v>
+      </c>
+      <c r="I8">
+        <v>1.65</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="3"/>
+        <v>807.69342921214502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45749.822916666657</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>7.7568834403656927E-3</v>
+        <v>0.32935678080870401</v>
       </c>
       <c r="E9">
-        <v>3.8966104102962022E-2</v>
+        <v>0.1654544583993712</v>
       </c>
       <c r="F9">
-        <v>0.95327701245667074</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.50518876079192587</v>
+      </c>
+      <c r="G9">
+        <v>1.41</v>
+      </c>
+      <c r="H9">
+        <v>5.25</v>
+      </c>
+      <c r="I9">
+        <v>7.5</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="3"/>
+        <v>81.726467573317038</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45749.822916666657</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>0.73404167156048927</v>
+        <v>0.64926773759119016</v>
       </c>
       <c r="E10">
-        <v>0.1678528136578766</v>
+        <v>0.27866884268863878</v>
       </c>
       <c r="F10">
-        <v>9.8105514781632527E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7.2063419720172314E-2</v>
+      </c>
+      <c r="G10">
+        <v>2.11</v>
+      </c>
+      <c r="H10">
+        <v>3.9</v>
+      </c>
+      <c r="I10">
+        <v>3.3</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="1"/>
+        <v>225.65519729998798</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="2"/>
+        <v>10.964820826789332</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45749.822916666657</v>
+        <v>45749.833333333343</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>7.8662655161190471E-4</v>
+        <v>0.91708939075554596</v>
       </c>
       <c r="E11">
-        <v>2.5652257096254811E-2</v>
+        <v>5.4907463400560297E-2</v>
       </c>
       <c r="F11">
-        <v>0.97356111635213205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2.8003145843892369E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.39</v>
+      </c>
+      <c r="H11">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="I11">
+        <v>7.75</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="1"/>
+        <v>724.04736382377746</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45749.822916666657</v>
+        <v>45749.833333333343</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>0.32935678080870401</v>
+        <v>0.86878049330547369</v>
       </c>
       <c r="E12">
-        <v>0.1654544583993712</v>
+        <v>8.5471666277534816E-2</v>
       </c>
       <c r="F12">
-        <v>0.50518876079192587</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>4.5747840416991779E-2</v>
+      </c>
+      <c r="G12">
+        <v>1.39</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>8.5</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="1"/>
+        <v>547.09169550849435</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45749.822916666657</v>
+        <v>45749.84375</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>0.99747727050567048</v>
+      </c>
+      <c r="E13">
+        <v>2.521124579730616E-3</v>
+      </c>
+      <c r="F13">
+        <v>1.604914598513395E-6</v>
+      </c>
+      <c r="G13">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>19</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="1"/>
+        <v>1227.3906943829609</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45750.833333333343</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>0.93092550059533163</v>
+      </c>
+      <c r="E14">
+        <v>5.2568324755210109E-2</v>
+      </c>
+      <c r="F14">
+        <v>1.650617464945835E-2</v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45751.833333333343</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>0.88403537627291462</v>
+      </c>
+      <c r="E15">
+        <v>9.6357470122326538E-2</v>
+      </c>
+      <c r="F15">
+        <v>1.960715360475877E-2</v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K15" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L15" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45751.84375</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>0.16164359065281919</v>
+      </c>
+      <c r="E16">
+        <v>0.30439043947839228</v>
+      </c>
+      <c r="F16">
+        <v>0.53396596986878864</v>
+      </c>
+      <c r="J16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K16" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L16" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45751.854166666657</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>6.5414312038908615E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.1911424929359653</v>
+      </c>
+      <c r="F17">
+        <v>0.74344319502512757</v>
+      </c>
+      <c r="J17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K17" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L17" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45751.864583333343</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>0.2149632075042083</v>
+      </c>
+      <c r="E18">
+        <v>0.40204212855917942</v>
+      </c>
+      <c r="F18">
+        <v>0.38299466393661152</v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L18" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45751.864583333343</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19">
+        <v>0.7600972215002999</v>
+      </c>
+      <c r="E19">
+        <v>0.17229201557846871</v>
+      </c>
+      <c r="F19">
+        <v>6.7610762921232345E-2</v>
+      </c>
+      <c r="J19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K19" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L19" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45751.875</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20">
+        <v>0.35480788517338069</v>
+      </c>
+      <c r="E20">
+        <v>0.41966594856366363</v>
+      </c>
+      <c r="F20">
+        <v>0.22552616626295571</v>
+      </c>
+      <c r="J20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K20" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L20" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45752.520833333343</v>
+      </c>
+      <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="D13">
-        <v>0.64926773759119016</v>
-      </c>
-      <c r="E13">
-        <v>0.27866884268863878</v>
-      </c>
-      <c r="F13">
-        <v>7.2063419720172314E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>45749.833333333343</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14">
-        <v>0.91708939075554596</v>
-      </c>
-      <c r="E14">
-        <v>5.4907463400560297E-2</v>
-      </c>
-      <c r="F14">
-        <v>2.8003145843892369E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>45749.833333333343</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15">
-        <v>0.86878049330547369</v>
-      </c>
-      <c r="E15">
-        <v>8.5471666277534816E-2</v>
-      </c>
-      <c r="F15">
-        <v>4.5747840416991779E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>45749.84375</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16">
-        <v>0.99747727050567048</v>
-      </c>
-      <c r="E16">
-        <v>2.521124579730616E-3</v>
-      </c>
-      <c r="F16">
-        <v>1.604914598513395E-6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>45750.833333333343</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17">
-        <v>0.93092550059533163</v>
-      </c>
-      <c r="E17">
-        <v>5.2568324755210109E-2</v>
-      </c>
-      <c r="F17">
-        <v>1.650617464945835E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>45751.833333333343</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18">
-        <v>0.88403537627291462</v>
-      </c>
-      <c r="E18">
-        <v>9.6357470122326538E-2</v>
-      </c>
-      <c r="F18">
-        <v>1.960715360475877E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>45751.84375</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19">
-        <v>0.16164359065281919</v>
-      </c>
-      <c r="E19">
-        <v>0.30439043947839228</v>
-      </c>
-      <c r="F19">
-        <v>0.53396596986878864</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>45751.854166666657</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20">
-        <v>6.5414312038908615E-2</v>
-      </c>
-      <c r="E20">
-        <v>0.1911424929359653</v>
-      </c>
-      <c r="F20">
-        <v>0.74344319502512757</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>45751.864583333343</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>0.2149632075042083</v>
+        <v>1.185645553671493E-2</v>
       </c>
       <c r="E21">
-        <v>0.40204212855917942</v>
+        <v>0.1332467583217517</v>
       </c>
       <c r="F21">
-        <v>0.38299466393661152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.85489678614153186</v>
+      </c>
+      <c r="J21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K21" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L21" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45751.864583333343</v>
+        <v>45752.583333333343</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
@@ -1113,18 +1462,30 @@
         <v>50</v>
       </c>
       <c r="D22">
-        <v>0.7600972215002999</v>
+        <v>0.1268182979181505</v>
       </c>
       <c r="E22">
-        <v>0.17229201557846871</v>
+        <v>0.15935133282998451</v>
       </c>
       <c r="F22">
-        <v>6.7610762921232345E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.71383036925186416</v>
+      </c>
+      <c r="J22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K22" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L22" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45751.875</v>
+        <v>45752.625</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
@@ -1133,493 +1494,697 @@
         <v>52</v>
       </c>
       <c r="D23">
-        <v>0.35480788517338069</v>
+        <v>0.23640156609235</v>
       </c>
       <c r="E23">
-        <v>0.41966594856366363</v>
+        <v>0.20062867624022471</v>
       </c>
       <c r="F23">
-        <v>0.22552616626295571</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.56296975766742474</v>
+      </c>
+      <c r="J23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L23" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45752.520833333343</v>
+        <v>45752.625</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>1.185645553671493E-2</v>
+        <v>7.5929656452999603E-3</v>
       </c>
       <c r="E24">
-        <v>0.1332467583217517</v>
+        <v>0.13895002104819351</v>
       </c>
       <c r="F24">
-        <v>0.85489678614153186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.85345701330650536</v>
+      </c>
+      <c r="J24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L24" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45752.583333333343</v>
+        <v>45752.625</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>0.20801958532789319</v>
+      </c>
+      <c r="E25">
+        <v>0.27410184754842642</v>
+      </c>
+      <c r="F25">
+        <v>0.51787856712367986</v>
+      </c>
+      <c r="J25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K25" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L25" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45752.645833333343</v>
+      </c>
+      <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="D25">
-        <v>0.1268182979181505</v>
-      </c>
-      <c r="E25">
-        <v>0.15935133282998451</v>
-      </c>
-      <c r="F25">
-        <v>0.71383036925186416</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>45752.625</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>55</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26">
+        <v>5.3585512814573432E-6</v>
+      </c>
+      <c r="E26">
+        <v>2.2788357947858731E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.97720628350085958</v>
+      </c>
+      <c r="J26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L26" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45752.645833333343</v>
+      </c>
+      <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="D26">
-        <v>0.23640156609235</v>
-      </c>
-      <c r="E26">
-        <v>0.20062867624022471</v>
-      </c>
-      <c r="F26">
-        <v>0.56296975766742474</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>45752.625</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
       <c r="D27">
-        <v>7.5929656452999603E-3</v>
+        <v>0.34438407775364271</v>
       </c>
       <c r="E27">
-        <v>0.13895002104819351</v>
+        <v>0.20925187842142151</v>
       </c>
       <c r="F27">
-        <v>0.85345701330650536</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.44636404382493561</v>
+      </c>
+      <c r="J27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L27" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45752.625</v>
+        <v>45752.645833333343</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D28">
-        <v>0.20801958532789319</v>
+        <v>0.48927875577308078</v>
       </c>
       <c r="E28">
-        <v>0.27410184754842642</v>
+        <v>0.21193188392633569</v>
       </c>
       <c r="F28">
-        <v>0.51787856712367986</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.29878936030058489</v>
+      </c>
+      <c r="J28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K28" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L28" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45752.645833333343</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D29">
-        <v>5.3585512814573432E-6</v>
+        <v>0.42476289082163599</v>
       </c>
       <c r="E29">
-        <v>2.2788357947858731E-2</v>
+        <v>0.13595108841260489</v>
       </c>
       <c r="F29">
-        <v>0.97720628350085958</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.43928602076575912</v>
+      </c>
+      <c r="J29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L29" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45752.645833333343</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D30">
-        <v>0.34438407775364271</v>
+        <v>0.12217609630160189</v>
       </c>
       <c r="E30">
-        <v>0.20925187842142151</v>
+        <v>0.51144344494300975</v>
       </c>
       <c r="F30">
-        <v>0.44636404382493561</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.36638045875538838</v>
+      </c>
+      <c r="J30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K30" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L30" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45752.645833333343</v>
+        <v>45752.677083333343</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D31">
-        <v>0.48927875577308078</v>
+        <v>0.97714815243285846</v>
       </c>
       <c r="E31">
-        <v>0.21193188392633569</v>
+        <v>2.075227890055362E-2</v>
       </c>
       <c r="F31">
-        <v>0.29878936030058489</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.0995686665883132E-3</v>
+      </c>
+      <c r="J31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K31" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L31" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45752.645833333343</v>
+        <v>45752.708333333343</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D32">
-        <v>0.42476289082163599</v>
+        <v>0.99592699428468012</v>
       </c>
       <c r="E32">
-        <v>0.13595108841260489</v>
+        <v>4.0294584757744429E-3</v>
       </c>
       <c r="F32">
-        <v>0.43928602076575912</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.3547239544774738E-5</v>
+      </c>
+      <c r="J32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K32" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L32" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45752.645833333343</v>
+        <v>45752.729166666657</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>0.12217609630160189</v>
+        <v>0.33428775650564702</v>
       </c>
       <c r="E33">
-        <v>0.51144344494300975</v>
+        <v>0.18238417408808841</v>
       </c>
       <c r="F33">
-        <v>0.36638045875538838</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.48332806940626488</v>
+      </c>
+      <c r="J33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K33" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L33" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45752.677083333343</v>
+        <v>45752.75</v>
       </c>
       <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
         <v>68</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34">
+        <v>7.4261642233332384E-2</v>
+      </c>
+      <c r="E34">
+        <v>0.27855913421201539</v>
+      </c>
+      <c r="F34">
+        <v>0.64717922355465118</v>
+      </c>
+      <c r="J34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K34" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L34" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45752.75</v>
+      </c>
+      <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="D34">
-        <v>0.97714815243285846</v>
-      </c>
-      <c r="E34">
-        <v>2.075227890055362E-2</v>
-      </c>
-      <c r="F34">
-        <v>2.0995686665883132E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>45752.708333333343</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>70</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35">
+        <v>4.5613975433601663E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.25886328586277002</v>
+      </c>
+      <c r="F35">
+        <v>0.69552273870362913</v>
+      </c>
+      <c r="J35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K35" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L35" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45752.770833333343</v>
+      </c>
+      <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="D35">
-        <v>0.99592699428468012</v>
-      </c>
-      <c r="E35">
-        <v>4.0294584757744429E-3</v>
-      </c>
-      <c r="F35">
-        <v>4.3547239544774738E-5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>45752.729166666657</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="D36">
-        <v>0.33428775650564702</v>
+        <v>6.2394475401175951E-2</v>
       </c>
       <c r="E36">
-        <v>0.18238417408808841</v>
+        <v>0.19187998625414579</v>
       </c>
       <c r="F36">
-        <v>0.48332806940626488</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.74572553834467881</v>
+      </c>
+      <c r="J36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K36" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L36" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45752.75</v>
+        <v>45752.770833333343</v>
       </c>
       <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
         <v>10</v>
       </c>
-      <c r="C37" t="s">
-        <v>72</v>
-      </c>
       <c r="D37">
-        <v>7.4261642233332384E-2</v>
+        <v>0.8106416089641163</v>
       </c>
       <c r="E37">
-        <v>0.27855913421201539</v>
+        <v>7.2829141552734455E-2</v>
       </c>
       <c r="F37">
-        <v>0.64717922355465118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.1165292494831494</v>
+      </c>
+      <c r="J37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K37" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L37" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45752.75</v>
+        <v>45752.78125</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D38">
-        <v>4.5613975433601663E-2</v>
+        <v>0.66724402347914558</v>
       </c>
       <c r="E38">
-        <v>0.25886328586277002</v>
+        <v>0.24440739374339079</v>
       </c>
       <c r="F38">
-        <v>0.69552273870362913</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8.8348582777463325E-2</v>
+      </c>
+      <c r="J38" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K38" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L38" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45752.770833333343</v>
+        <v>45752.791666666657</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D39">
-        <v>6.2394475401175951E-2</v>
+        <v>0.2402116946594503</v>
       </c>
       <c r="E39">
-        <v>0.19187998625414579</v>
+        <v>0.2141734218448659</v>
       </c>
       <c r="F39">
-        <v>0.74572553834467881</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.54561488349568266</v>
+      </c>
+      <c r="J39" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K39" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L39" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45752.770833333343</v>
+        <v>45752.854166666657</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D40">
-        <v>0.8106416089641163</v>
+        <v>0.68804163062980239</v>
       </c>
       <c r="E40">
-        <v>7.2829141552734455E-2</v>
+        <v>0.180742747455792</v>
       </c>
       <c r="F40">
-        <v>0.1165292494831494</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.131215621914404</v>
+      </c>
+      <c r="J40" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K40" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L40" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45752.78125</v>
+        <v>45752.864583333343</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D41">
-        <v>0.66724402347914558</v>
+        <v>0.6128155628114127</v>
       </c>
       <c r="E41">
-        <v>0.24440739374339079</v>
+        <v>0.24663603829338859</v>
       </c>
       <c r="F41">
-        <v>8.8348582777463325E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.1405483988951976</v>
+      </c>
+      <c r="J41" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K41" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L41" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45752.791666666657</v>
+        <v>45752.875</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D42">
-        <v>0.2402116946594503</v>
+        <v>0.98626975694885965</v>
       </c>
       <c r="E42">
-        <v>0.2141734218448659</v>
+        <v>1.3691863199576789E-2</v>
       </c>
       <c r="F42">
-        <v>0.54561488349568266</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.8379851563274417E-5</v>
+      </c>
+      <c r="J42" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K42" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L42" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45752.854166666657</v>
+        <v>45752.875</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D43">
-        <v>0.68804163062980239</v>
+        <v>0.22769999102349869</v>
       </c>
       <c r="E43">
-        <v>0.180742747455792</v>
+        <v>0.1681214907500008</v>
       </c>
       <c r="F43">
-        <v>0.131215621914404</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.60417851822650204</v>
+      </c>
+      <c r="J43" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K43" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L43" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45752.864583333343</v>
+        <v>45752.878472222219</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D44">
-        <v>0.6128155628114127</v>
+        <v>0.74251585321539559</v>
       </c>
       <c r="E44">
-        <v>0.24663603829338859</v>
+        <v>0.16889585878654059</v>
       </c>
       <c r="F44">
-        <v>0.1405483988951976</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
-        <v>45752.875</v>
-      </c>
-      <c r="B45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45">
-        <v>0.98626975694885965</v>
-      </c>
-      <c r="E45">
-        <v>1.3691863199576789E-2</v>
-      </c>
-      <c r="F45">
-        <v>3.8379851563274417E-5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
-        <v>45752.875</v>
-      </c>
-      <c r="B46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46">
-        <v>0.22769999102349869</v>
-      </c>
-      <c r="E46">
-        <v>0.1681214907500008</v>
-      </c>
-      <c r="F46">
-        <v>0.60417851822650204</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
-        <v>45752.878472222219</v>
-      </c>
-      <c r="B47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47">
-        <v>0.74251585321539559</v>
-      </c>
-      <c r="E47">
-        <v>0.16889585878654059</v>
-      </c>
-      <c r="F47">
         <v>8.8588287998062648E-2</v>
+      </c>
+      <c r="J44" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K44" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L44" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/ML_PL_new/actual_preds.xlsx
+++ b/ML_PL_new/actual_preds.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,26 +486,26 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45753.52083333334</v>
+        <v>45759.52083333334</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.2901599304748774</v>
+        <v>0.1131733486684995</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3077940452330317</v>
+        <v>0.1051184546473019</v>
       </c>
       <c r="F2" t="n">
-        <v>0.402046024292091</v>
+        <v>0.7817081966842004</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -513,26 +513,26 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45753.54166666666</v>
+        <v>45759.58333333334</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Sociedad</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sociedad</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.2818139064113938</v>
+        <v>0.6201983230378076</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1137533504872498</v>
+        <v>0.2171157141280644</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6044327431013561</v>
+        <v>0.1626859628341263</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -540,26 +540,26 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45753.58333333334</v>
+        <v>45759.625</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7031409690196824</v>
+        <v>0.3649910391362485</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1496529749504721</v>
+        <v>0.2052549990804474</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1472060560298468</v>
+        <v>0.4297539617833026</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -567,26 +567,26 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45753.58333333334</v>
+        <v>45759.625</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.292824068088222</v>
+        <v>0.0411323955360109</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2797520228656262</v>
+        <v>0.2039189431828113</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4274239090461505</v>
+        <v>0.7549486612811774</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -594,26 +594,26 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45753.58333333334</v>
+        <v>45759.625</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.1277252314266646</v>
+        <v>0.5656610382533823</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08201392757838216</v>
+        <v>0.3035934815076461</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7902608409949528</v>
+        <v>0.1307454802389708</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -621,26 +621,26 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45753.60416666666</v>
+        <v>45759.625</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.1456930262892355</v>
+        <v>0.3770709382469937</v>
       </c>
       <c r="E7" t="n">
-        <v>0.198082685568417</v>
+        <v>0.492246453410554</v>
       </c>
       <c r="F7" t="n">
-        <v>0.656224288142347</v>
+        <v>0.130682608342451</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -648,26 +648,26 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45753.60416666666</v>
+        <v>45759.64583333334</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8655826675256274</v>
+        <v>0.02409354976519363</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08028454370789569</v>
+        <v>0.08209362404625328</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05413278876647746</v>
+        <v>0.8938128261885537</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -675,26 +675,26 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45753.625</v>
+        <v>45759.64583333334</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>St Etienne</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.4076201573745925</v>
+        <v>0.1222567091380805</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2620020147637523</v>
+        <v>0.112862793677379</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3303778278616537</v>
+        <v>0.7648804971845403</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -702,26 +702,26 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45753.625</v>
+        <v>45759.64583333334</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>M'gladbach</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.1253143874756157</v>
+        <v>0.08066394308370287</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8103459218367219</v>
+        <v>0.1502076928053032</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06433969068766214</v>
+        <v>0.7691283641109938</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -729,26 +729,26 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45753.625</v>
+        <v>45759.64583333334</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.5248829743555328</v>
+        <v>0.5549306822249681</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3086392739947951</v>
+        <v>0.1513938151785094</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1664777516496709</v>
+        <v>0.293675502596524</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -756,26 +756,26 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45753.64583333334</v>
+        <v>45759.64583333334</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8881313160538964</v>
+        <v>0.09905973058164969</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08500251524215954</v>
+        <v>0.1660424138996178</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02686616870394513</v>
+        <v>0.7348978555187335</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -783,26 +783,26 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45753.64583333334</v>
+        <v>45759.67708333334</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>M'gladbach</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.002170437884132765</v>
+        <v>0.4305847851688948</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05829549238775168</v>
+        <v>0.2238748845330672</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9395340697281152</v>
+        <v>0.3455403302980382</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -810,26 +810,26 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45753.67708333334</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ath Madrid</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.06630796565232944</v>
+        <v>0.9858641630482728</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0766599965095737</v>
+        <v>0.01412312947240647</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8570320378380964</v>
+        <v>1.270747931866404e-05</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -837,26 +837,26 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45753.6875</v>
+        <v>45759.72916666666</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Man United</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2962385075252245</v>
+        <v>0.154618987941943</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1681012847565087</v>
+        <v>0.1695405315329735</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5356602077182652</v>
+        <v>0.6758404805250847</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
@@ -864,26 +864,26 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45753.69791666666</v>
+        <v>45759.75</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.9419209301197348</v>
+        <v>0.9681654328728314</v>
       </c>
       <c r="E16" t="n">
-        <v>0.05360530500340236</v>
+        <v>0.02992290549776476</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004473764876863967</v>
+        <v>0.001911661629405342</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -891,26 +891,26 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45753.71875</v>
+        <v>45759.77083333334</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Celta</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Espanol</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.01633609041990273</v>
+        <v>0.6145691939280014</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05136658733078053</v>
+        <v>0.3026308713412749</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9322973222493168</v>
+        <v>0.08279993473072446</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -918,26 +918,26 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45753.71875</v>
+        <v>45759.77083333334</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.01573253445987643</v>
+        <v>0.8252364764114454</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08197668191521673</v>
+        <v>0.1721461211120378</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9022907836249067</v>
+        <v>0.002617402476516687</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -945,26 +945,26 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45753.71875</v>
+        <v>45759.79166666666</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.04160339523654696</v>
+        <v>0.09976831945724592</v>
       </c>
       <c r="E19" t="n">
-        <v>0.227816708114688</v>
+        <v>0.1415314452282959</v>
       </c>
       <c r="F19" t="n">
-        <v>0.730579896648766</v>
+        <v>0.7587002353144592</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -972,26 +972,26 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45753.72916666666</v>
+        <v>45759.86458333334</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.06620837409508461</v>
+        <v>0.5928239649513269</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1278091164034068</v>
+        <v>0.2182351496579341</v>
       </c>
       <c r="F20" t="n">
-        <v>0.80598250950151</v>
+        <v>0.1889408853907394</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -999,26 +999,26 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45753.75</v>
+        <v>45759.875</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.233542168154732</v>
+        <v>0.0004795182886428272</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2869887771782725</v>
+        <v>0.1449451365582341</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4794690546669963</v>
+        <v>0.8545753451531197</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -1026,26 +1026,26 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45753.77083333334</v>
+        <v>45759.87847222222</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.08797798273971316</v>
+        <v>0.2216591221426398</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08305751022159509</v>
+        <v>0.2902840873330128</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8289645070386926</v>
+        <v>0.4880567905243485</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -1053,26 +1053,26 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45753.86458333334</v>
+        <v>45760.52083333334</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.8428783733775094</v>
+        <v>0.1331650760807696</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08921479005209985</v>
+        <v>0.1836351800387563</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06790683657039129</v>
+        <v>0.6831997438804724</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1080,26 +1080,26 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45753.86458333334</v>
+        <v>45760.58333333334</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.1162325216719954</v>
+        <v>0.9654991548568728</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7810153089937238</v>
+        <v>0.03007556921632998</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1027521693342792</v>
+        <v>0.004425275926797147</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1107,26 +1107,26 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45753.875</v>
+        <v>45760.58333333334</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ath Bilbao</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.8413855232858538</v>
+        <v>0.9505725595767145</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1172589813807315</v>
+        <v>0.04292861872811674</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04135549533341626</v>
+        <v>0.006498821695170351</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -1134,26 +1134,26 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45754.78125</v>
+        <v>45760.58333333334</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.1795611861416672</v>
+        <v>0.3471778821405745</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1310226655819602</v>
+        <v>0.2616258133777837</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6894161482763734</v>
+        <v>0.3911963044816399</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1161,26 +1161,26 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45754.83333333334</v>
+        <v>45760.625</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.07093181000336242</v>
+        <v>0.2831317200593507</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5039500855307595</v>
+        <v>0.4949240576237081</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4251181044658787</v>
+        <v>0.2219442223169425</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -1188,26 +1188,26 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45754.84375</v>
+        <v>45760.625</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.5545898875395254</v>
+        <v>0.7266188397114938</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2942611911238867</v>
+        <v>0.2171030325217837</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1511489213365873</v>
+        <v>0.05627812776672375</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -1215,26 +1215,26 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45754.86458333334</v>
+        <v>45760.625</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sp Lisbon</t>
+          <t>St Etienne</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sp Braga</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.9511762153174246</v>
+        <v>0.06118809395321643</v>
       </c>
       <c r="E29" t="n">
-        <v>0.04482461243198025</v>
+        <v>0.1747021923153609</v>
       </c>
       <c r="F29" t="n">
-        <v>0.003999172250593896</v>
+        <v>0.7641097137314243</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -1242,26 +1242,26 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45754.86458333334</v>
+        <v>45760.64583333334</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9040136949408677</v>
+        <v>0.022725294276554</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07981855709872787</v>
+        <v>0.03333436515742327</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01616774796040617</v>
+        <v>0.9439403405660218</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -1269,26 +1269,26 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45754.875</v>
+        <v>45760.67708333334</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.2604752586369882</v>
+        <v>0.09974347073322253</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5621675048632896</v>
+        <v>0.1070984319551345</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1773572364997206</v>
+        <v>0.7931580973116436</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -1296,26 +1296,26 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45758.85416666666</v>
+        <v>45760.6875</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Man United</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.0252478396959038</v>
+        <v>0.1103822677815012</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2904597801996576</v>
+        <v>0.3150932489198735</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6842923801044388</v>
+        <v>0.5745244832986268</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -1323,26 +1323,26 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45758.86458333334</v>
+        <v>45760.71875</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.3470832768007098</v>
+        <v>0.1022163827735012</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2236121214241365</v>
+        <v>0.6716771081206581</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4293046017751531</v>
+        <v>0.2261065091058376</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -1350,26 +1350,26 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45758.86458333334</v>
+        <v>45760.71875</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.3507066583956684</v>
+        <v>0.004208319663714516</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3306803591041247</v>
+        <v>0.05552189449588172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3186129825002066</v>
+        <v>0.9402697858404055</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -1377,30 +1377,246 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45758.875</v>
+        <v>45760.72916666666</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Ein Frankfurt</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.4664521422162868</v>
+        <v>0.2180028480144686</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2171116974743554</v>
+        <v>0.1951718992719297</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3164361603093575</v>
+        <v>0.5868252527136</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45760.75</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.2759558418493942</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.176272963188443</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.5477711949621638</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45760.77083333334</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5579050009902032</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.1148106372592663</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.3272843617505297</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45760.86458333334</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.003192560751745491</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.05225009269611126</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9445573465521425</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45760.86458333334</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.04798312289763527</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.1941111288127651</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.757905748289601</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45760.875</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8685928975644651</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.1178578840802816</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.01354921835525289</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45761.83333333334</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.2503301029603674</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1557490045394911</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.5939208925001407</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45761.86458333334</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.8675615657173423</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.09008033593651972</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.04235809834613967</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45761.875</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Ath Madrid</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5450641116516683</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.3006465753801145</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1542893129682163</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
